--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -886,6 +886,71 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationFeeScoreCategory_CS"/&gt;
+  &lt;code value="medication"/&gt;
+  &lt;display value="投薬"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
@@ -1810,7 +1875,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6781,7 +6846,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6793,20 +6858,18 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6831,32 +6894,34 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6865,40 +6930,38 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6907,19 +6970,19 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>295</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6945,63 +7008,63 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7009,10 +7072,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7024,18 +7087,20 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7044,7 +7109,7 @@
         <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>78</v>
@@ -7083,13 +7148,13 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -7098,24 +7163,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7135,21 +7200,23 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7197,7 +7264,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7212,10 +7279,10 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7224,12 +7291,12 @@
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7237,10 +7304,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7249,19 +7316,19 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7287,37 +7354,35 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
@@ -7326,35 +7391,37 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7363,18 +7430,20 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7399,13 +7468,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7423,13 +7492,13 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
@@ -7438,24 +7507,24 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7463,7 +7532,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7475,18 +7544,20 @@
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7535,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7547,38 +7618,38 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7590,16 +7661,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>147</v>
+        <v>322</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7649,25 +7720,25 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -7681,11 +7752,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7698,26 +7769,24 @@
         <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7765,7 +7834,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7777,16 +7846,16 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7797,7 +7866,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7808,7 +7877,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -7820,18 +7889,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>187</v>
+        <v>340</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7855,13 +7922,13 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>78</v>
@@ -7879,13 +7946,13 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
@@ -7894,10 +7961,10 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
@@ -7911,7 +7978,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7919,7 +7986,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
@@ -7934,13 +8001,13 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>340</v>
+        <v>166</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>341</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7991,10 +8058,10 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
@@ -8003,13 +8070,13 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -8023,18 +8090,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8046,16 +8113,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8105,25 +8172,25 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>349</v>
+        <v>170</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8137,11 +8204,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8154,24 +8221,26 @@
         <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>351</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8219,7 +8288,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8231,27 +8300,27 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8277,15 +8346,15 @@
         <v>187</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8312,10 +8381,10 @@
         <v>269</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>78</v>
@@ -8333,7 +8402,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8351,21 +8420,21 @@
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8388,17 +8457,15 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8447,25 +8514,25 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8474,12 +8541,12 @@
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8502,16 +8569,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8561,7 +8628,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8570,16 +8637,16 @@
         <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8588,12 +8655,12 @@
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8604,7 +8671,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8613,18 +8680,20 @@
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8673,13 +8742,13 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
@@ -8688,24 +8757,24 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8713,7 +8782,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
@@ -8728,15 +8797,17 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K61" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -8761,13 +8832,13 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8785,7 +8856,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8800,24 +8871,24 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8825,7 +8896,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
@@ -8840,16 +8911,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8899,7 +8970,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8908,10 +8979,10 @@
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>393</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -8923,15 +8994,15 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8942,7 +9013,7 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -8954,16 +9025,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9013,39 +9084,39 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>393</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9056,7 +9127,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9065,20 +9136,18 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9127,13 +9196,13 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -9142,24 +9211,24 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9167,10 +9236,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9182,17 +9251,15 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9241,13 +9308,13 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
@@ -9256,24 +9323,24 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9296,15 +9363,17 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9353,7 +9422,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9371,21 +9440,21 @@
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9396,7 +9465,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9408,15 +9477,17 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>167</v>
+        <v>419</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9465,31 +9536,31 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>169</v>
+        <v>417</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>170</v>
+        <v>421</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9497,11 +9568,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9520,16 +9591,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>173</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9579,7 +9650,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9591,13 +9662,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>170</v>
+        <v>429</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9606,16 +9677,16 @@
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9628,26 +9699,24 @@
         <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>432</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9695,7 +9764,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9707,13 +9776,13 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>129</v>
+        <v>435</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -9727,7 +9796,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9735,7 +9804,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
@@ -9750,13 +9819,13 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9807,10 +9876,10 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
@@ -9825,13 +9894,13 @@
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -9839,7 +9908,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9862,17 +9931,15 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>430</v>
+        <v>167</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -9897,13 +9964,13 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
@@ -9921,7 +9988,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>429</v>
+        <v>169</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -9933,31 +10000,31 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>365</v>
+        <v>170</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9976,16 +10043,16 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>439</v>
+        <v>173</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10011,13 +10078,13 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -10035,7 +10102,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>437</v>
+        <v>175</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10047,19 +10114,19 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>442</v>
+        <v>170</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10067,11 +10134,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10084,24 +10151,26 @@
         <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>446</v>
+        <v>349</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>447</v>
+        <v>350</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10149,7 +10218,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10161,19 +10230,19 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>448</v>
+        <v>129</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10181,18 +10250,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10204,17 +10273,15 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10263,13 +10330,13 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -10281,7 +10348,7 @@
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
@@ -10295,7 +10362,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10306,7 +10373,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10318,16 +10385,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>458</v>
+        <v>187</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10353,13 +10420,13 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10377,13 +10444,13 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -10395,15 +10462,471 @@
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AL76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>78</v>
       </c>
     </row>
